--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H2">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N2">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P2">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q2">
-        <v>3.558686689881216</v>
+        <v>11.78042538637066</v>
       </c>
       <c r="R2">
-        <v>3.558686689881216</v>
+        <v>106.023828477336</v>
       </c>
       <c r="S2">
-        <v>0.005945434157393456</v>
+        <v>0.0160171349729683</v>
       </c>
       <c r="T2">
-        <v>0.005945434157393456</v>
+        <v>0.0160171349729683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H3">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P3">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q3">
-        <v>41.46956276135983</v>
+        <v>66.89947896514087</v>
       </c>
       <c r="R3">
-        <v>41.46956276135983</v>
+        <v>602.0953106862679</v>
       </c>
       <c r="S3">
-        <v>0.06928245625966867</v>
+        <v>0.09095919281876086</v>
       </c>
       <c r="T3">
-        <v>0.06928245625966867</v>
+        <v>0.09095919281876087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H4">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N4">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P4">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q4">
-        <v>3.272649149129161</v>
+        <v>6.030664306193333</v>
       </c>
       <c r="R4">
-        <v>3.272649149129161</v>
+        <v>54.27597875573999</v>
       </c>
       <c r="S4">
-        <v>0.005467556357721001</v>
+        <v>0.008199531086603627</v>
       </c>
       <c r="T4">
-        <v>0.005467556357721001</v>
+        <v>0.008199531086603627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H5">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N5">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P5">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q5">
-        <v>7.829582233870222</v>
+        <v>16.47879498809133</v>
       </c>
       <c r="R5">
-        <v>7.829582233870222</v>
+        <v>148.309154892822</v>
       </c>
       <c r="S5">
-        <v>0.01308074289982711</v>
+        <v>0.0224052251815542</v>
       </c>
       <c r="T5">
-        <v>0.01308074289982711</v>
+        <v>0.0224052251815542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H6">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P6">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q6">
-        <v>91.23853267721829</v>
+        <v>93.58089903545678</v>
       </c>
       <c r="R6">
-        <v>91.23853267721829</v>
+        <v>842.2280913191109</v>
       </c>
       <c r="S6">
-        <v>0.1524305835048656</v>
+        <v>0.1272363129158966</v>
       </c>
       <c r="T6">
-        <v>0.1524305835048656</v>
+        <v>0.1272363129158966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H7">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N7">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P7">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q7">
-        <v>7.20026174503366</v>
+        <v>8.435865215761668</v>
       </c>
       <c r="R7">
-        <v>7.20026174503366</v>
+        <v>75.92278694185501</v>
       </c>
       <c r="S7">
-        <v>0.01202934842306262</v>
+        <v>0.01146973792058034</v>
       </c>
       <c r="T7">
-        <v>0.01202934842306262</v>
+        <v>0.01146973792058034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H8">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6785515664345561</v>
+        <v>1.398034</v>
       </c>
       <c r="N8">
-        <v>0.6785515664345561</v>
+        <v>4.194102</v>
       </c>
       <c r="O8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="P8">
-        <v>0.07367744271850751</v>
+        <v>0.139066772576779</v>
       </c>
       <c r="Q8">
-        <v>32.71194778132894</v>
+        <v>74.02285072183467</v>
       </c>
       <c r="R8">
-        <v>32.71194778132894</v>
+        <v>666.205656496512</v>
       </c>
       <c r="S8">
-        <v>0.05465126566128693</v>
+        <v>0.1006444124222565</v>
       </c>
       <c r="T8">
-        <v>0.05465126566128693</v>
+        <v>0.1006444124222565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H9">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.90719701486733</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
-        <v>7.90719701486733</v>
+        <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434783</v>
       </c>
       <c r="P9">
-        <v>0.8585671066799155</v>
+        <v>0.7897418235434784</v>
       </c>
       <c r="Q9">
-        <v>381.1940442583401</v>
+        <v>420.3659869986062</v>
       </c>
       <c r="R9">
-        <v>381.1940442583401</v>
+        <v>3783.293882987456</v>
       </c>
       <c r="S9">
-        <v>0.6368540669153812</v>
+        <v>0.571546317808821</v>
       </c>
       <c r="T9">
-        <v>0.6368540669153812</v>
+        <v>0.571546317808821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H10">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.624011440188468</v>
+        <v>0.715685</v>
       </c>
       <c r="N10">
-        <v>0.624011440188468</v>
+        <v>2.147055</v>
       </c>
       <c r="O10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="P10">
-        <v>0.06775545060157696</v>
+        <v>0.0711914038797426</v>
       </c>
       <c r="Q10">
-        <v>30.08265053996565</v>
+        <v>37.89395960245334</v>
       </c>
       <c r="R10">
-        <v>30.08265053996565</v>
+        <v>341.04563642208</v>
       </c>
       <c r="S10">
-        <v>0.05025854582079334</v>
+        <v>0.05152213487255864</v>
       </c>
       <c r="T10">
-        <v>0.05025854582079334</v>
+        <v>0.05152213487255864</v>
       </c>
     </row>
   </sheetData>
